--- a/dist/document/dest/2020/10/doctors/41.xlsx
+++ b/dist/document/dest/2020/10/doctors/41.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>614</v>
       </c>
-      <c r="C2" s="1">
-        <v>4119940</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>4470</v>
       </c>
-      <c r="C3" s="1">
-        <v>36877500</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>168</v>
       </c>
-      <c r="C4" s="1">
-        <v>772800</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>3104</v>
       </c>
-      <c r="C5" s="1">
-        <v>20144960</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>120</v>
       </c>
-      <c r="C6" s="1">
-        <v>552000</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>60</v>
       </c>
-      <c r="C7" s="1">
-        <v>331200</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>405</v>
       </c>
-      <c r="C8" s="1">
-        <v>3964950</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>180</v>
       </c>
-      <c r="C9" s="1">
-        <v>1184400</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>180</v>
       </c>
-      <c r="C10" s="1">
-        <v>630000</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>56</v>
       </c>
-      <c r="C11" s="1">
-        <v>15120000</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>2280</v>
       </c>
-      <c r="C12" s="1">
-        <v>23826000</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>60</v>
       </c>
-      <c r="C13" s="1">
-        <v>84600</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>300</v>
       </c>
-      <c r="C14" s="1">
-        <v>8250000</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>1410</v>
       </c>
-      <c r="C15" s="1">
-        <v>55836000</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>2805</v>
       </c>
-      <c r="C16" s="1">
-        <v>104907000</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>14125</v>
       </c>
-      <c r="C17" s="1">
-        <v>174020000</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>120</v>
       </c>
-      <c r="C18" s="1">
-        <v>1742400</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>100</v>
       </c>
-      <c r="C19" s="1">
-        <v>1430000</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>19061</v>
       </c>
-      <c r="C20" s="1">
-        <v>109600750</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>28</v>
       </c>
-      <c r="C21" s="1">
-        <v>431200</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>28</v>
       </c>
-      <c r="C22" s="1">
-        <v>83720</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>1510</v>
       </c>
-      <c r="C23" s="1">
-        <v>19101500</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>240</v>
       </c>
-      <c r="C24" s="1">
-        <v>1324800</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>140</v>
       </c>
-      <c r="C25" s="1">
-        <v>35280000</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>3206</v>
       </c>
-      <c r="C26" s="1">
-        <v>31739400</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>2290</v>
       </c>
-      <c r="C27" s="1">
-        <v>50380000</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>56</v>
       </c>
-      <c r="C28" s="1">
-        <v>363440</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>180</v>
       </c>
-      <c r="C29" s="1">
-        <v>1584000</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>420</v>
       </c>
-      <c r="C30" s="1">
-        <v>3696000</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>15</v>
       </c>
-      <c r="C31" s="1">
-        <v>50025</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>10320</v>
       </c>
-      <c r="C32" s="1">
-        <v>397320000</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>2582</v>
       </c>
-      <c r="C33" s="1">
-        <v>28117980</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>90</v>
       </c>
-      <c r="C34" s="1">
-        <v>3168000</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>1460</v>
       </c>
-      <c r="C35" s="1">
-        <v>43362000</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>480</v>
       </c>
-      <c r="C36" s="1">
-        <v>14928000</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>480</v>
       </c>
-      <c r="C37" s="1">
-        <v>1159200</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>56</v>
       </c>
-      <c r="C38" s="1">
-        <v>212520</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>42</v>
       </c>
-      <c r="C39" s="1">
-        <v>369600</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -823,7 +709,7 @@
         <v>73241</v>
       </c>
       <c r="C40" s="1">
-        <v>1196065885</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/41.xlsx
+++ b/dist/document/dest/2020/10/doctors/41.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,319 +402,1313 @@
         <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B2" s="1">
-        <v>614</v>
+        <v>60</v>
+      </c>
+      <c r="C2" s="1">
+        <v>402600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alcomet (Metadoxine 500mg)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B3" s="1">
-        <v>4470</v>
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>201300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Amribazin (Ribavirin 500mg)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>168</v>
+        <v>180</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1485000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Amursolic (Ursodeoxycholic 150mg)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>3104</v>
+        <v>600</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4950000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Bentarcin (Thymomodulin 80mg)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>120</v>
+        <v>240</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1980000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Betnapin (Thymomodulin 80mg)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>60</v>
+        <v>2660</v>
+      </c>
+      <c r="C7" s="1">
+        <v>21945000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Bonzacim (Rosuvastatin 10mg)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>405</v>
+        <v>300</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2475000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Diamicron MR 60mg (Gliclazide)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>180</v>
+        <v>320</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2640000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Enat (Vitamin E 400)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>180</v>
+        <v>240</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1980000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Epclusa (Velpatasvir, sofosbuvir)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>56</v>
+        <v>240</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1980000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Esocon  20mg (Esomeprazole)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>2280</v>
+        <v>380</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3135000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v xml:space="preserve">Ferrovit (Iron, folic acid, vitamin B12) </v>
+        <v>Amribazin (Ribavirin 500mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>60</v>
+        <v>112</v>
+      </c>
+      <c r="C13" s="1">
+        <v>515200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Fudteno (Tenofovir)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>300</v>
+        <v>180</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1168200</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>1410</v>
+        <v>120</v>
+      </c>
+      <c r="C15" s="1">
+        <v>778800</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>2805</v>
+        <v>120</v>
+      </c>
+      <c r="C16" s="1">
+        <v>778800</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Homan (Ursodeoxycholic 300mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>14125</v>
+        <v>232</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1505680</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Hueso (Ursodeoxycholic 300mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>120</v>
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <v>194700</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Ketovital</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>100</v>
+        <v>60</v>
+      </c>
+      <c r="C19" s="1">
+        <v>389400</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>19061</v>
+        <v>270</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1752300</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>92000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>28</v>
+        <v>60</v>
+      </c>
+      <c r="C22" s="1">
+        <v>276000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>1510</v>
+        <v>180</v>
+      </c>
+      <c r="C23" s="1">
+        <v>993600</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Mezondin (Thymomodulin 80mg)</v>
+        <v>Enat (Vitamin E 400)</v>
       </c>
       <c r="B24" s="1">
-        <v>240</v>
+        <v>60</v>
+      </c>
+      <c r="C24" s="1">
+        <v>210000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Myvelpa (Sofosbuver, velpatasvir)</v>
+        <v>Enat (Vitamin E 400)</v>
       </c>
       <c r="B25" s="1">
-        <v>140</v>
+        <v>60</v>
+      </c>
+      <c r="C25" s="1">
+        <v>210000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Novator (Deferiprone 500mg)</v>
+        <v>Epclusa (Velpatasvir, sofosbuvir)</v>
       </c>
       <c r="B26" s="1">
-        <v>3206</v>
+        <v>28</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7560000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Pharcavir (Tenofovir alafenamide 25mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B27" s="1">
-        <v>2290</v>
+        <v>90</v>
+      </c>
+      <c r="C27" s="1">
+        <v>940500</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B28" s="1">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="C28" s="1">
+        <v>627000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Silytrol (Lamivudine 100mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B29" s="1">
-        <v>180</v>
+        <v>90</v>
+      </c>
+      <c r="C29" s="1">
+        <v>940500</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Somexwell (Esomeprazole 20mg</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B30" s="1">
-        <v>420</v>
+        <v>120</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1254000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Spiromide (Spironolactone, Furosemide)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B31" s="1">
-        <v>15</v>
+        <v>210</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2194500</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Stemvir (Tenofovir 300mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B32" s="1">
-        <v>10320</v>
+        <v>1440</v>
+      </c>
+      <c r="C32" s="1">
+        <v>15048000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B33" s="1">
-        <v>2582</v>
+        <v>60</v>
+      </c>
+      <c r="C33" s="1">
+        <v>627000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Tafsafe (Tenofovir Alafenamide 25mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B34" s="1">
-        <v>90</v>
+        <v>120</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1254000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Tenifo (Tenofovir 300mg)</v>
+        <v>Esserose (Phospholipids 450mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>1460</v>
+        <v>20</v>
+      </c>
+      <c r="C35" s="1">
+        <v>121000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Tenolam (Tenofovir 300mg, Lamivudine 100mg)</v>
+        <v xml:space="preserve">Ferrovit (Iron, folic acid, vitamin B12) </v>
       </c>
       <c r="B36" s="1">
-        <v>480</v>
+        <v>120</v>
+      </c>
+      <c r="C36" s="1">
+        <v>169200</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Tyrozet (Metformin 850mg)</v>
+        <v>Fudteno (Tenofovir)</v>
       </c>
       <c r="B37" s="1">
-        <v>480</v>
+        <v>195</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5362500</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Uvomo (Mosaprid citrat 5mg)</v>
+        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>56</v>
+        <v>215</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8041000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Vinsalamin (Mesalamin 400mg)</v>
+        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
       </c>
       <c r="B39" s="1">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1122000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
+        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B40" s="1">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2805000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B41" s="1">
+        <v>60</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2244000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B42" s="1">
+        <v>60</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2244000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B43" s="1">
+        <v>120</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4488000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B44" s="1">
+        <v>150</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5610000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1510</v>
+      </c>
+      <c r="C45" s="1">
+        <v>56474000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>HepBest (Tenofovir Alafenamide 25mg)</v>
+      </c>
+      <c r="B46" s="1">
+        <v>270</v>
+      </c>
+      <c r="C46" s="1">
+        <v>10098000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B47" s="1">
+        <v>440</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5420800</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B48" s="1">
+        <v>780</v>
+      </c>
+      <c r="C48" s="1">
+        <v>9609600</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1140</v>
+      </c>
+      <c r="C49" s="1">
+        <v>14044800</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B50" s="1">
+        <v>770</v>
+      </c>
+      <c r="C50" s="1">
+        <v>9486400</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B51" s="1">
+        <v>420</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5174400</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B52" s="1">
+        <v>540</v>
+      </c>
+      <c r="C52" s="1">
+        <v>6652800</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B53" s="1">
+        <v>450</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5544000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B54" s="1">
+        <v>5922</v>
+      </c>
+      <c r="C54" s="1">
+        <v>72959040</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B55" s="1">
+        <v>720</v>
+      </c>
+      <c r="C55" s="1">
+        <v>8870400</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Homan (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1440</v>
+      </c>
+      <c r="C56" s="1">
+        <v>17740800</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Hueso (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B57" s="1">
+        <v>180</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2613600</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Incamix (L-ornithin L-aspartat 250mg)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>70</v>
+      </c>
+      <c r="C58" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>K1 (Phytomenadione 10mg/ml)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>8</v>
+      </c>
+      <c r="C59" s="1">
+        <v>96800</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>420</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2415000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>870</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5002500</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B62" s="1">
+        <v>900</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5175000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1440</v>
+      </c>
+      <c r="C63" s="1">
+        <v>8280000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>450</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2587500</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>720</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4140000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>570</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3277500</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B67" s="1">
+        <v>9908</v>
+      </c>
+      <c r="C67" s="1">
+        <v>56971000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>900</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5175000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1440</v>
+      </c>
+      <c r="C69" s="1">
+        <v>8280000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B70" s="1">
+        <v>300</v>
+      </c>
+      <c r="C70" s="1">
+        <v>3795000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>60</v>
+      </c>
+      <c r="C71" s="1">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1110</v>
+      </c>
+      <c r="C72" s="1">
+        <v>14041500</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Myvelpa (Sofosbuver, velpatasvir)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>140</v>
+      </c>
+      <c r="C73" s="1">
+        <v>35280000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Novator (Deferiprone 500mg)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>60</v>
+      </c>
+      <c r="C74" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Novator (Deferiprone 500mg)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>180</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1782000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Novator (Deferiprone 500mg)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>300</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2970000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Novator (Deferiprone 500mg)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1376</v>
+      </c>
+      <c r="C77" s="1">
+        <v>13622400</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Novator (Deferiprone 500mg)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>240</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2376000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>PMS-Ursodiol C 250mg</v>
+      </c>
+      <c r="B79" s="1">
+        <v>180</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2530800</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>PMS-Ursodiol C 250mg</v>
+      </c>
+      <c r="B80" s="1">
+        <v>60</v>
+      </c>
+      <c r="C80" s="1">
+        <v>843600</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Pharcavir (Tenofovir alafenamide 25mg)</v>
+      </c>
+      <c r="B81" s="1">
+        <v>120</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2640000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Pharcavir (Tenofovir alafenamide 25mg)</v>
+      </c>
+      <c r="B82" s="1">
+        <v>30</v>
+      </c>
+      <c r="C82" s="1">
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Pharcavir (Tenofovir alafenamide 25mg)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>150</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Pharcavir (Tenofovir alafenamide 25mg)</v>
+      </c>
+      <c r="B84" s="1">
+        <v>150</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Pharcavir (Tenofovir alafenamide 25mg)</v>
+      </c>
+      <c r="B85" s="1">
+        <v>120</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2640000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Pharcavir (Tenofovir alafenamide 25mg)</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1085</v>
+      </c>
+      <c r="C86" s="1">
+        <v>23870000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Pharcavir (Tenofovir alafenamide 25mg)</v>
+      </c>
+      <c r="B87" s="1">
+        <v>60</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1320000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B88" s="1">
+        <v>90</v>
+      </c>
+      <c r="C88" s="1">
+        <v>356850</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Spiromide (Spironolactone, Furosemide)</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45</v>
+      </c>
+      <c r="C89" s="1">
+        <v>150075</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Spiromide (Spironolactone, Furosemide)</v>
+      </c>
+      <c r="B90" s="1">
+        <v>35</v>
+      </c>
+      <c r="C90" s="1">
+        <v>116725</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B91" s="1">
+        <v>120</v>
+      </c>
+      <c r="C91" s="1">
+        <v>4620000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B92" s="1">
+        <v>330</v>
+      </c>
+      <c r="C92" s="1">
+        <v>12705000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B93" s="1">
+        <v>600</v>
+      </c>
+      <c r="C93" s="1">
+        <v>23100000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B94" s="1">
+        <v>270</v>
+      </c>
+      <c r="C94" s="1">
+        <v>10395000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B95" s="1">
+        <v>330</v>
+      </c>
+      <c r="C95" s="1">
+        <v>12705000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B96" s="1">
+        <v>3313</v>
+      </c>
+      <c r="C96" s="1">
+        <v>127550500</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B97" s="1">
+        <v>360</v>
+      </c>
+      <c r="C97" s="1">
+        <v>13860000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B98" s="1">
+        <v>420</v>
+      </c>
+      <c r="C98" s="1">
+        <v>16170000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B99" s="1">
+        <v>270</v>
+      </c>
+      <c r="C99" s="1">
+        <v>10395000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Stemvir (Tenofovir 300mg)</v>
+      </c>
+      <c r="B100" s="1">
+        <v>30</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1155000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B101" s="1">
+        <v>150</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1633500</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B102" s="1">
+        <v>60</v>
+      </c>
+      <c r="C102" s="1">
+        <v>653400</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B103" s="1">
+        <v>120</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1306800</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B104" s="1">
+        <v>90</v>
+      </c>
+      <c r="C104" s="1">
+        <v>980100</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1158</v>
+      </c>
+      <c r="C105" s="1">
+        <v>12610620</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B106" s="1">
+        <v>120</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1306800</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B107" s="1">
+        <v>60</v>
+      </c>
+      <c r="C107" s="1">
+        <v>653400</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+      </c>
+      <c r="B108" s="1">
+        <v>120</v>
+      </c>
+      <c r="C108" s="1">
+        <v>496800</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Tehep - B (Tenofovir 300mg)</v>
+      </c>
+      <c r="B109" s="1">
+        <v>30</v>
+      </c>
+      <c r="C109" s="1">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Tenifo (Tenofovir 300mg)</v>
+      </c>
+      <c r="B110" s="1">
+        <v>200</v>
+      </c>
+      <c r="C110" s="1">
+        <v>5940000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Tenifo (Tenofovir 300mg)</v>
+      </c>
+      <c r="B111" s="1">
+        <v>135</v>
+      </c>
+      <c r="C111" s="1">
+        <v>4009500</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Tenifo (Tenofovir 300mg)</v>
+      </c>
+      <c r="B112" s="1">
+        <v>90</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2673000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Tenifo (Tenofovir 300mg)</v>
+      </c>
+      <c r="B113" s="1">
+        <v>525</v>
+      </c>
+      <c r="C113" s="1">
+        <v>15592500</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Tenifo (Tenofovir 300mg)</v>
+      </c>
+      <c r="B114" s="1">
+        <v>90</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2673000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Tenifo (Tenofovir 300mg)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>30</v>
+      </c>
+      <c r="C115" s="1">
+        <v>891000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Tenifo (Tenofovir 300mg)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>30</v>
+      </c>
+      <c r="C116" s="1">
+        <v>891000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Tenolam (Tenofovir 300mg, Lamivudine 100mg)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>60</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1866000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Tenolam (Tenofovir 300mg, Lamivudine 100mg)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>90</v>
+      </c>
+      <c r="C118" s="1">
+        <v>2799000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>180</v>
+      </c>
+      <c r="C119" s="1">
+        <v>434700</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B40" s="1">
-        <v>73241</v>
-      </c>
-      <c r="C40" s="1">
-        <v>NaN</v>
+      <c r="B120" s="1">
+        <v>57567</v>
+      </c>
+      <c r="C120" s="1">
+        <v>848530790</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C40"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C120"/>
   </ignoredErrors>
 </worksheet>
 </file>